--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-600051.4998885078</v>
+        <v>-600487.8155629539</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996864</v>
+        <v>218615.8834996859</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>185.6886899313005</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>71.88501278663338</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>88.2291579977077</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -792,13 +792,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>106.412217546311</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>14.50387586212008</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.67076193273353</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>212.8114464872989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>173.6128629535276</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>90.59837612226706</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>59.30041534778918</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1035,7 +1035,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.40990102784433</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>100.690891553375</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>325.224086848979</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -1148,7 +1148,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>276.6027274271223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V9" t="n">
-        <v>34.88540590286376</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>57.0380364259622</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.208646707806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>286.2199636654877</v>
@@ -1379,16 +1379,16 @@
         <v>298.9434052799213</v>
       </c>
       <c r="F11" t="n">
-        <v>147.2294561367102</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>320.0484892653209</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>79.194569388259</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.46222820091663</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>160.4420255081129</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>11.53489953827159</v>
       </c>
       <c r="W11" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>286.3153816586886</v>
@@ -1464,10 +1464,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I12" t="n">
-        <v>53.13297117133678</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790356</v>
+        <v>10.05607453749172</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.64671682548195</v>
       </c>
       <c r="E13" t="n">
         <v>58.59446668126139</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.0613910094477</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.33609373079554</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65.88446135348596</v>
       </c>
       <c r="I13" t="n">
         <v>50.86655653831531</v>
@@ -1576,7 +1576,7 @@
         <v>56.13210615673262</v>
       </c>
       <c r="S13" t="n">
-        <v>93.04920059779026</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T13" t="n">
         <v>138.952706237445</v>
@@ -1585,13 +1585,13 @@
         <v>192.4238797007582</v>
       </c>
       <c r="V13" t="n">
-        <v>166.2334939821287</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>191.4003800527419</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.045482048545</v>
       </c>
       <c r="Y13" t="n">
         <v>127.9203498046127</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.5324548045082</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C14" t="n">
-        <v>286.2199636654878</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
-        <v>318.1152213678985</v>
+        <v>318.1152213678984</v>
       </c>
       <c r="G14" t="n">
-        <v>320.048489265321</v>
+        <v>320.0484892653209</v>
       </c>
       <c r="H14" t="n">
         <v>237.5986042436309</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825904</v>
+        <v>46.94094617500325</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.46222820091661</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
-        <v>160.442025508113</v>
+        <v>160.4420255081129</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479852</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>286.3153816586887</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548875</v>
+        <v>297.7119794548874</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>145.5211447459511</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
@@ -1701,7 +1701,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>84.3729875932661</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.02535242790354</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548199</v>
+        <v>59.64671682548193</v>
       </c>
       <c r="E16" t="n">
-        <v>17.67661555325878</v>
+        <v>58.59446668126138</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079558</v>
+        <v>75.33609373079553</v>
       </c>
       <c r="H16" t="n">
-        <v>65.884461353486</v>
+        <v>65.88446135348595</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831535</v>
+        <v>50.86655653831529</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.13210615673266</v>
+        <v>56.1321061567326</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>119.6782075553163</v>
       </c>
       <c r="T16" t="n">
-        <v>138.9527062374451</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U16" t="n">
         <v>192.4238797007582</v>
@@ -1825,13 +1825,13 @@
         <v>166.2334939821287</v>
       </c>
       <c r="W16" t="n">
-        <v>191.400380052742</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>137.0454820485451</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>91.82445099006564</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C17" t="n">
         <v>211.9853559380638</v>
@@ -1862,7 +1862,7 @@
         <v>163.3639965162069</v>
       </c>
       <c r="I17" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835035</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349266</v>
       </c>
       <c r="T17" t="n">
-        <v>55.98629166384205</v>
+        <v>55.98629166384202</v>
       </c>
       <c r="U17" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068898</v>
       </c>
       <c r="V17" t="n">
         <v>167.4804162205612</v>
@@ -1910,7 +1910,7 @@
         <v>212.0807739312647</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>53.13297117133678</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101707</v>
       </c>
       <c r="U18" t="n">
         <v>216.3098444776729</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507911</v>
       </c>
       <c r="C19" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479593</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371576</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>45.44359982789243</v>
+        <v>45.4435998278924</v>
       </c>
       <c r="T19" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002104</v>
       </c>
       <c r="U19" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V19" t="n">
-        <v>91.99888625470473</v>
+        <v>91.9988862547047</v>
       </c>
       <c r="W19" t="n">
         <v>117.165772325318</v>
       </c>
       <c r="X19" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112108</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718876</v>
       </c>
     </row>
     <row r="20">
@@ -2160,7 +2160,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>145.521144745952</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133546</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>53.13297117133636</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>211.546175040646</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612606</v>
+        <v>261.4420352612604</v>
       </c>
       <c r="C26" t="n">
-        <v>249.4533522189423</v>
+        <v>249.4533522189421</v>
       </c>
       <c r="D26" t="n">
-        <v>240.4346562634703</v>
+        <v>240.4346562634701</v>
       </c>
       <c r="E26" t="n">
-        <v>262.1767938333758</v>
+        <v>262.1767938333757</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3486099213529</v>
+        <v>281.3486099213528</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2818778187755</v>
+        <v>283.2818778187753</v>
       </c>
       <c r="H26" t="n">
-        <v>200.8319927970854</v>
+        <v>200.8319927970853</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171354</v>
+        <v>42.4279579417134</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437117</v>
+        <v>56.69561675437103</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472053</v>
+        <v>93.45428794472039</v>
       </c>
       <c r="U26" t="n">
-        <v>123.6754140615675</v>
+        <v>123.6754140615674</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014397</v>
+        <v>204.9484125014395</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793966</v>
+        <v>230.2485119793964</v>
       </c>
       <c r="X26" t="n">
-        <v>249.5487702121432</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.9453680083419</v>
+        <v>260.9453680083418</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2700,7 +2700,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
-        <v>176.0306218014133</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595762</v>
+        <v>53.05874613595748</v>
       </c>
       <c r="C28" t="n">
-        <v>39.2587409813581</v>
+        <v>39.25874098135796</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893649</v>
+        <v>22.88010537893635</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471594</v>
+        <v>21.8278552347158</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290225</v>
+        <v>22.29477956290211</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228425009</v>
+        <v>38.56948228424994</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694051</v>
+        <v>29.11784990694036</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09994509176985</v>
+        <v>14.09994509176971</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018716</v>
+        <v>19.36549471018702</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877091</v>
+        <v>82.91159610877077</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908995</v>
+        <v>102.1860947908994</v>
       </c>
       <c r="U28" t="n">
-        <v>155.6572682542127</v>
+        <v>155.6572682542126</v>
       </c>
       <c r="V28" t="n">
-        <v>129.4668825355832</v>
+        <v>129.4668825355831</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061965</v>
+        <v>154.6337686061963</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019996</v>
+        <v>100.2788706019994</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806727</v>
+        <v>91.15373835806713</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612605</v>
+        <v>261.4420352612603</v>
       </c>
       <c r="C29" t="n">
-        <v>249.4533522189422</v>
+        <v>249.4533522189421</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4346562634702</v>
+        <v>240.4346562634701</v>
       </c>
       <c r="E29" t="n">
-        <v>262.1767938333758</v>
+        <v>262.1767938333756</v>
       </c>
       <c r="F29" t="n">
-        <v>281.3486099213529</v>
+        <v>281.3486099213528</v>
       </c>
       <c r="G29" t="n">
-        <v>283.2818778187755</v>
+        <v>283.2818778187753</v>
       </c>
       <c r="H29" t="n">
-        <v>200.8319927970853</v>
+        <v>200.8319927970852</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171349</v>
+        <v>42.42795794171334</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.69561675437112</v>
+        <v>56.69561675437097</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472048</v>
+        <v>93.45428794472033</v>
       </c>
       <c r="U29" t="n">
-        <v>123.6754140615674</v>
+        <v>123.6754140615673</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014396</v>
+        <v>204.9484125014395</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793965</v>
+        <v>230.2485119793964</v>
       </c>
       <c r="X29" t="n">
-        <v>249.5487702121431</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.9453680083419</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2874,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
-        <v>122.8847593541866</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
         <v>145.5577298436975</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595756</v>
+        <v>53.05874613595742</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135805</v>
+        <v>39.2587409813579</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893643</v>
+        <v>22.88010537893629</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471588</v>
+        <v>21.82785523471574</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290219</v>
+        <v>22.29477956290205</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228425003</v>
+        <v>38.56948228424989</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694045</v>
+        <v>29.11784990694031</v>
       </c>
       <c r="I31" t="n">
-        <v>14.0999450917698</v>
+        <v>14.09994509176965</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018711</v>
+        <v>19.36549471018697</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877085</v>
+        <v>82.91159610877071</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1860947908995</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U31" t="n">
-        <v>155.6572682542127</v>
+        <v>155.6572682542125</v>
       </c>
       <c r="V31" t="n">
-        <v>129.4668825355832</v>
+        <v>129.466882535583</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061964</v>
+        <v>154.6337686061963</v>
       </c>
       <c r="X31" t="n">
-        <v>100.2788706019995</v>
+        <v>100.2788706019994</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.15373835806722</v>
+        <v>91.15373835806707</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3029,25 @@
         <v>253.327175636089</v>
       </c>
       <c r="C32" t="n">
-        <v>241.3384925937708</v>
+        <v>241.3384925937707</v>
       </c>
       <c r="D32" t="n">
-        <v>232.3197966382988</v>
+        <v>232.3197966382987</v>
       </c>
       <c r="E32" t="n">
-        <v>254.0619342082043</v>
+        <v>254.0619342082042</v>
       </c>
       <c r="F32" t="n">
-        <v>273.2337502961815</v>
+        <v>273.2337502961814</v>
       </c>
       <c r="G32" t="n">
-        <v>275.167018193604</v>
+        <v>275.1670181936039</v>
       </c>
       <c r="H32" t="n">
-        <v>192.7171331719139</v>
+        <v>192.7171331719138</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31309831654204</v>
+        <v>34.31309831654195</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.58075712919967</v>
+        <v>48.58075712919958</v>
       </c>
       <c r="T32" t="n">
-        <v>85.33942831954903</v>
+        <v>85.33942831954894</v>
       </c>
       <c r="U32" t="n">
-        <v>115.560554436396</v>
+        <v>115.5605544363959</v>
       </c>
       <c r="V32" t="n">
-        <v>196.8335528762682</v>
+        <v>196.8335528762681</v>
       </c>
       <c r="W32" t="n">
-        <v>222.1336523542251</v>
+        <v>222.133652354225</v>
       </c>
       <c r="X32" t="n">
-        <v>241.4339105869717</v>
+        <v>241.4339105869716</v>
       </c>
       <c r="Y32" t="n">
         <v>252.8305083831704</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3171,7 +3171,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
-        <v>181.3723269554797</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
         <v>190.5961130869169</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.94388651078611</v>
+        <v>44.94388651078603</v>
       </c>
       <c r="C34" t="n">
-        <v>31.1438813561866</v>
+        <v>31.14388135618651</v>
       </c>
       <c r="D34" t="n">
-        <v>14.76524575376499</v>
+        <v>14.7652457537649</v>
       </c>
       <c r="E34" t="n">
-        <v>13.71299560954444</v>
+        <v>13.71299560954435</v>
       </c>
       <c r="F34" t="n">
-        <v>14.17991993773074</v>
+        <v>14.17991993773066</v>
       </c>
       <c r="G34" t="n">
-        <v>30.45462265907858</v>
+        <v>30.4546226590785</v>
       </c>
       <c r="H34" t="n">
-        <v>21.002990281769</v>
+        <v>21.00299028176892</v>
       </c>
       <c r="I34" t="n">
-        <v>5.985085466598349</v>
+        <v>5.985085466598264</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.25063508501566</v>
+        <v>11.25063508501557</v>
       </c>
       <c r="S34" t="n">
-        <v>74.7967364835994</v>
+        <v>74.79673648359932</v>
       </c>
       <c r="T34" t="n">
-        <v>94.07123516572804</v>
+        <v>94.07123516572796</v>
       </c>
       <c r="U34" t="n">
-        <v>147.5424086290412</v>
+        <v>147.5424086290411</v>
       </c>
       <c r="V34" t="n">
-        <v>121.3520229104117</v>
+        <v>121.3520229104116</v>
       </c>
       <c r="W34" t="n">
-        <v>146.518908981025</v>
+        <v>146.5189089810249</v>
       </c>
       <c r="X34" t="n">
-        <v>92.16401097682808</v>
+        <v>92.164010976828</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.03887873289577</v>
+        <v>83.03887873289568</v>
       </c>
     </row>
     <row r="35">
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S36" t="n">
-        <v>136.7060008318836</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
         <v>186.7982527956746</v>
@@ -3588,7 +3588,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>130.9922385581942</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
         <v>133.3468600696244</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3825,7 +3825,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
-        <v>130.9922385581942</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
         <v>133.3468600696244</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S45" t="n">
-        <v>136.7060008318832</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
         <v>186.7982527956746</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1406.156679722408</v>
+        <v>1566.160755333895</v>
       </c>
       <c r="C2" t="n">
-        <v>1406.156679722408</v>
+        <v>1566.160755333895</v>
       </c>
       <c r="D2" t="n">
-        <v>1033.332714949632</v>
+        <v>1193.336790561119</v>
       </c>
       <c r="E2" t="n">
-        <v>638.5469950557386</v>
+        <v>798.5510706672255</v>
       </c>
       <c r="F2" t="n">
-        <v>628.4362084063131</v>
+        <v>384.3998799773958</v>
       </c>
       <c r="G2" t="n">
-        <v>212.3322218605011</v>
+        <v>372.3362974719878</v>
       </c>
       <c r="H2" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="I2" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="J2" t="n">
-        <v>111.5135673421028</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="K2" t="n">
-        <v>351.6539393868856</v>
+        <v>279.6553951140799</v>
       </c>
       <c r="L2" t="n">
-        <v>699.5393124718319</v>
+        <v>627.5407681990262</v>
       </c>
       <c r="M2" t="n">
-        <v>1092.77847872492</v>
+        <v>1020.779934452114</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.109837412635</v>
+        <v>1348.157418849432</v>
       </c>
       <c r="O2" t="n">
-        <v>1747.594257008802</v>
+        <v>1653.162003322266</v>
       </c>
       <c r="P2" t="n">
-        <v>1975.751153464855</v>
+        <v>1881.318899778319</v>
       </c>
       <c r="Q2" t="n">
-        <v>1975.751153464855</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="R2" t="n">
-        <v>1975.751153464855</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="S2" t="n">
-        <v>1975.751153464855</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="T2" t="n">
-        <v>1788.186820200915</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="U2" t="n">
-        <v>1788.186820200915</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="V2" t="n">
-        <v>1788.186820200915</v>
+        <v>1638.771879360798</v>
       </c>
       <c r="W2" t="n">
-        <v>1788.186820200915</v>
+        <v>1566.160755333895</v>
       </c>
       <c r="X2" t="n">
-        <v>1406.156679722408</v>
+        <v>1566.160755333895</v>
       </c>
       <c r="Y2" t="n">
-        <v>1406.156679722408</v>
+        <v>1566.160755333895</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>396.2025216696466</v>
+        <v>688.7418255023568</v>
       </c>
       <c r="C3" t="n">
-        <v>396.2025216696466</v>
+        <v>688.7418255023568</v>
       </c>
       <c r="D3" t="n">
-        <v>257.3638846598587</v>
+        <v>549.9031884925689</v>
       </c>
       <c r="E3" t="n">
-        <v>257.3638846598587</v>
+        <v>402.8751785494402</v>
       </c>
       <c r="F3" t="n">
-        <v>257.3638846598587</v>
+        <v>268.1813804993145</v>
       </c>
       <c r="G3" t="n">
-        <v>128.6353846831433</v>
+        <v>139.4528805225991</v>
       </c>
       <c r="H3" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="I3" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="J3" t="n">
-        <v>99.76916960240324</v>
+        <v>99.76916960240328</v>
       </c>
       <c r="K3" t="n">
-        <v>99.76916960240324</v>
+        <v>329.259722162592</v>
       </c>
       <c r="L3" t="n">
-        <v>465.5910147725189</v>
+        <v>695.0815673327077</v>
       </c>
       <c r="M3" t="n">
-        <v>950.6243682827453</v>
+        <v>1180.114920842934</v>
       </c>
       <c r="N3" t="n">
-        <v>1281.455283405007</v>
+        <v>1281.455283405008</v>
       </c>
       <c r="O3" t="n">
-        <v>1673.655234189157</v>
+        <v>1673.655234189159</v>
       </c>
       <c r="P3" t="n">
-        <v>1975.751153464855</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="Q3" t="n">
-        <v>1975.751153464855</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="R3" t="n">
-        <v>1975.751153464855</v>
+        <v>1915.966884559802</v>
       </c>
       <c r="S3" t="n">
-        <v>1822.951666477595</v>
+        <v>1763.167397572542</v>
       </c>
       <c r="T3" t="n">
-        <v>1634.26656264358</v>
+        <v>1574.482293738527</v>
       </c>
       <c r="U3" t="n">
-        <v>1415.77177024189</v>
+        <v>1466.99520530791</v>
       </c>
       <c r="V3" t="n">
-        <v>1187.376147690224</v>
+        <v>1238.599582756244</v>
       </c>
       <c r="W3" t="n">
-        <v>946.0602789235342</v>
+        <v>1238.599582756244</v>
       </c>
       <c r="X3" t="n">
-        <v>748.1432908013287</v>
+        <v>1040.682594634039</v>
       </c>
       <c r="Y3" t="n">
-        <v>555.6219644509075</v>
+        <v>848.1612682836178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.58649976902794</v>
+        <v>1458.342287877631</v>
       </c>
       <c r="C4" t="n">
-        <v>79.58649976902794</v>
+        <v>1458.342287877631</v>
       </c>
       <c r="D4" t="n">
-        <v>79.58649976902794</v>
+        <v>1443.691908218924</v>
       </c>
       <c r="E4" t="n">
-        <v>79.58649976902794</v>
+        <v>1443.691908218924</v>
       </c>
       <c r="F4" t="n">
-        <v>79.58649976902794</v>
+        <v>1443.691908218924</v>
       </c>
       <c r="G4" t="n">
-        <v>79.58649976902794</v>
+        <v>1443.691908218924</v>
       </c>
       <c r="H4" t="n">
-        <v>79.58649976902794</v>
+        <v>1443.691908218924</v>
       </c>
       <c r="I4" t="n">
-        <v>79.58649976902794</v>
+        <v>1443.691908218924</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929709</v>
+        <v>1443.691908218924</v>
       </c>
       <c r="K4" t="n">
-        <v>73.1192108139405</v>
+        <v>1477.296095963567</v>
       </c>
       <c r="L4" t="n">
-        <v>173.7262902142</v>
+        <v>1577.903175363827</v>
       </c>
       <c r="M4" t="n">
-        <v>291.7197963418017</v>
+        <v>1695.896681491429</v>
       </c>
       <c r="N4" t="n">
-        <v>410.1421380914021</v>
+        <v>1814.319023241029</v>
       </c>
       <c r="O4" t="n">
-        <v>508.6057845870918</v>
+        <v>1912.782669736719</v>
       </c>
       <c r="P4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="R4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="S4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="T4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="U4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="V4" t="n">
-        <v>310.8389638736522</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="W4" t="n">
-        <v>310.8389638736522</v>
+        <v>1689.594751982256</v>
       </c>
       <c r="X4" t="n">
-        <v>79.58649976902794</v>
+        <v>1458.342287877631</v>
       </c>
       <c r="Y4" t="n">
-        <v>79.58649976902794</v>
+        <v>1458.342287877631</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1630.227530674702</v>
+        <v>963.8068122536863</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.293772007509</v>
+        <v>963.8068122536863</v>
       </c>
       <c r="D5" t="n">
-        <v>1033.332714949632</v>
+        <v>963.8068122536863</v>
       </c>
       <c r="E5" t="n">
-        <v>638.5469950557386</v>
+        <v>963.8068122536863</v>
       </c>
       <c r="F5" t="n">
-        <v>628.4362084063131</v>
+        <v>788.4402840177999</v>
       </c>
       <c r="G5" t="n">
-        <v>212.3322218605011</v>
+        <v>372.3362974719878</v>
       </c>
       <c r="H5" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="I5" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="J5" t="n">
-        <v>111.5135673421028</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="K5" t="n">
-        <v>228.7015208236807</v>
+        <v>279.6553951140799</v>
       </c>
       <c r="L5" t="n">
-        <v>576.586893908627</v>
+        <v>627.5407681990262</v>
       </c>
       <c r="M5" t="n">
-        <v>969.8260601617148</v>
+        <v>1020.779934452114</v>
       </c>
       <c r="N5" t="n">
-        <v>1348.157418849431</v>
+        <v>1399.11129313983</v>
       </c>
       <c r="O5" t="n">
-        <v>1653.162003322265</v>
+        <v>1704.115877612664</v>
       </c>
       <c r="P5" t="n">
-        <v>1881.318899778318</v>
+        <v>1932.272774068717</v>
       </c>
       <c r="Q5" t="n">
-        <v>1975.751153464855</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="R5" t="n">
-        <v>1885.112866960708</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="S5" t="n">
-        <v>1885.112866960708</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="T5" t="n">
-        <v>1885.112866960708</v>
+        <v>1751.392207195868</v>
       </c>
       <c r="U5" t="n">
-        <v>1630.227530674702</v>
+        <v>1751.392207195868</v>
       </c>
       <c r="V5" t="n">
-        <v>1630.227530674702</v>
+        <v>1751.392207195868</v>
       </c>
       <c r="W5" t="n">
-        <v>1630.227530674702</v>
+        <v>1751.392207195868</v>
       </c>
       <c r="X5" t="n">
-        <v>1630.227530674702</v>
+        <v>1751.392207195868</v>
       </c>
       <c r="Y5" t="n">
-        <v>1630.227530674702</v>
+        <v>1357.850351771705</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>775.6511096534878</v>
+        <v>746.9189967791133</v>
       </c>
       <c r="C6" t="n">
-        <v>613.9474368944425</v>
+        <v>585.215324020068</v>
       </c>
       <c r="D6" t="n">
-        <v>475.1087998846546</v>
+        <v>446.3766870102801</v>
       </c>
       <c r="E6" t="n">
-        <v>328.0807899415258</v>
+        <v>299.3486770671513</v>
       </c>
       <c r="F6" t="n">
-        <v>328.0807899415258</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="G6" t="n">
-        <v>199.3522899648104</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="H6" t="n">
-        <v>99.41443251150839</v>
+        <v>107.8973083792361</v>
       </c>
       <c r="I6" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="J6" t="n">
-        <v>99.76916960240324</v>
+        <v>99.76916960240328</v>
       </c>
       <c r="K6" t="n">
-        <v>329.2597221625919</v>
+        <v>329.259722162592</v>
       </c>
       <c r="L6" t="n">
-        <v>695.0815673327076</v>
+        <v>695.0815673327077</v>
       </c>
       <c r="M6" t="n">
         <v>1180.114920842934</v>
       </c>
       <c r="N6" t="n">
-        <v>1180.114920842934</v>
+        <v>1669.113331325486</v>
       </c>
       <c r="O6" t="n">
-        <v>1515.883604403563</v>
+        <v>1817.979523679262</v>
       </c>
       <c r="P6" t="n">
-        <v>1817.97952367926</v>
+        <v>1817.979523679262</v>
       </c>
       <c r="Q6" t="n">
-        <v>1975.751153464855</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="R6" t="n">
-        <v>1915.966884559801</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="S6" t="n">
-        <v>1763.167397572541</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="T6" t="n">
-        <v>1574.482293738526</v>
+        <v>1787.066049630841</v>
       </c>
       <c r="U6" t="n">
-        <v>1355.987501336836</v>
+        <v>1568.571257229152</v>
       </c>
       <c r="V6" t="n">
-        <v>1127.59187878517</v>
+        <v>1340.175634677486</v>
       </c>
       <c r="W6" t="n">
-        <v>1127.59187878517</v>
+        <v>1098.859765910795</v>
       </c>
       <c r="X6" t="n">
-        <v>1127.59187878517</v>
+        <v>1098.859765910795</v>
       </c>
       <c r="Y6" t="n">
-        <v>935.0705524347487</v>
+        <v>906.3384395603742</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.1309926076168</v>
+        <v>422.0524869296078</v>
       </c>
       <c r="C7" t="n">
-        <v>39.51502306929709</v>
+        <v>422.0524869296078</v>
       </c>
       <c r="D7" t="n">
-        <v>39.51502306929709</v>
+        <v>268.9805937573705</v>
       </c>
       <c r="E7" t="n">
-        <v>39.51502306929709</v>
+        <v>268.9805937573705</v>
       </c>
       <c r="F7" t="n">
-        <v>39.51502306929709</v>
+        <v>183.7180674666186</v>
       </c>
       <c r="G7" t="n">
-        <v>39.51502306929709</v>
+        <v>183.7180674666186</v>
       </c>
       <c r="H7" t="n">
-        <v>39.51502306929709</v>
+        <v>183.7180674666186</v>
       </c>
       <c r="I7" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="K7" t="n">
-        <v>73.1192108139405</v>
+        <v>73.11921081394054</v>
       </c>
       <c r="L7" t="n">
         <v>173.7262902142</v>
       </c>
       <c r="M7" t="n">
-        <v>291.7197963418017</v>
+        <v>291.7197963418018</v>
       </c>
       <c r="N7" t="n">
-        <v>410.1421380914021</v>
+        <v>410.1421380914022</v>
       </c>
       <c r="O7" t="n">
         <v>508.6057845870918</v>
@@ -4747,28 +4747,28 @@
         <v>571.5742683152296</v>
       </c>
       <c r="R7" t="n">
-        <v>571.5742683152296</v>
+        <v>422.0524869296078</v>
       </c>
       <c r="S7" t="n">
-        <v>571.5742683152296</v>
+        <v>422.0524869296078</v>
       </c>
       <c r="T7" t="n">
-        <v>469.8662970491942</v>
+        <v>422.0524869296078</v>
       </c>
       <c r="U7" t="n">
-        <v>469.8662970491942</v>
+        <v>422.0524869296078</v>
       </c>
       <c r="V7" t="n">
-        <v>209.1309926076168</v>
+        <v>422.0524869296078</v>
       </c>
       <c r="W7" t="n">
-        <v>209.1309926076168</v>
+        <v>422.0524869296078</v>
       </c>
       <c r="X7" t="n">
-        <v>209.1309926076168</v>
+        <v>422.0524869296078</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.1309926076168</v>
+        <v>422.0524869296078</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1821.816110689131</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="C8" t="n">
-        <v>1439.882352021938</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="D8" t="n">
-        <v>1439.882352021938</v>
+        <v>1772.703626424629</v>
       </c>
       <c r="E8" t="n">
-        <v>1045.096632128045</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F8" t="n">
-        <v>630.9454414382152</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
         <v>214.8414548924032</v>
@@ -4847,7 +4847,7 @@
         <v>2101.212805059961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1821.816110689131</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>852.9547312933042</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>691.251058534259</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>552.412421524471</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>405.3844115813423</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>270.6906135312166</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>44.796090196649</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>44.796090196649</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>410.6179353667646</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
         <v>895.6512888769911</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V9" t="n">
-        <v>1446.211369191676</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W9" t="n">
-        <v>1204.895500424986</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X9" t="n">
-        <v>1204.895500424986</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y9" t="n">
-        <v>1012.374174074565</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.63843430924186</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C10" t="n">
-        <v>99.63843430924186</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D10" t="n">
-        <v>99.63843430924186</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E10" t="n">
-        <v>99.63843430924186</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F10" t="n">
-        <v>99.63843430924186</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G10" t="n">
-        <v>99.63843430924186</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H10" t="n">
-        <v>99.63843430924186</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I10" t="n">
-        <v>99.63843430924186</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4987,25 +4987,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>99.63843430924186</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>99.63843430924186</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>99.63843430924186</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.63843430924186</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1394.173989571637</v>
+        <v>1565.45047189</v>
       </c>
       <c r="C11" t="n">
-        <v>1105.062915162054</v>
+        <v>1276.339397480417</v>
       </c>
       <c r="D11" t="n">
-        <v>825.0616346468862</v>
+        <v>996.3381169652494</v>
       </c>
       <c r="E11" t="n">
-        <v>523.0985990106021</v>
+        <v>694.3750813289653</v>
       </c>
       <c r="F11" t="n">
-        <v>374.3819766502887</v>
+        <v>694.3750813289653</v>
       </c>
       <c r="G11" t="n">
-        <v>51.10067436208575</v>
+        <v>371.0937790407624</v>
       </c>
       <c r="H11" t="n">
-        <v>51.10067436208575</v>
+        <v>131.0951888956807</v>
       </c>
       <c r="I11" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J11" t="n">
-        <v>214.074731475774</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K11" t="n">
         <v>454.2151035205568</v>
@@ -5054,37 +5054,37 @@
         <v>1755.622027228072</v>
       </c>
       <c r="O11" t="n">
-        <v>2139.328126882647</v>
+        <v>2151.602124541788</v>
       </c>
       <c r="P11" t="n">
-        <v>2367.4850233387</v>
+        <v>2458.460536179582</v>
       </c>
       <c r="Q11" t="n">
-        <v>2552.89278986612</v>
+        <v>2552.892789866119</v>
       </c>
       <c r="R11" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S11" t="n">
-        <v>2555.033718104288</v>
+        <v>2460.62742699225</v>
       </c>
       <c r="T11" t="n">
-        <v>2555.033718104288</v>
+        <v>2329.09116498087</v>
       </c>
       <c r="U11" t="n">
-        <v>2555.033718104288</v>
+        <v>2167.028512952473</v>
       </c>
       <c r="V11" t="n">
-        <v>2555.033718104288</v>
+        <v>2155.377099277451</v>
       </c>
       <c r="W11" t="n">
-        <v>2285.321472219498</v>
+        <v>2155.377099277451</v>
       </c>
       <c r="X11" t="n">
-        <v>1996.1140159986</v>
+        <v>1866.169643056553</v>
       </c>
       <c r="Y11" t="n">
-        <v>1695.394844832048</v>
+        <v>1565.45047189</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>915.7008174040259</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C12" t="n">
-        <v>753.9971446449806</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D12" t="n">
-        <v>615.1585076351927</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E12" t="n">
-        <v>468.1304976920639</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F12" t="n">
-        <v>333.4366996419383</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G12" t="n">
-        <v>204.7081996652228</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H12" t="n">
-        <v>104.7703422119209</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I12" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J12" t="n">
-        <v>111.3548208951929</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K12" t="n">
-        <v>340.8453734553815</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L12" t="n">
-        <v>706.6672186254972</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M12" t="n">
-        <v>1191.700572135724</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.966218258846</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O12" t="n">
         <v>2095.166169042996</v>
       </c>
       <c r="P12" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.449962211974</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U12" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V12" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W12" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X12" t="n">
-        <v>1267.641586535708</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y12" t="n">
-        <v>1075.120260185287</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>238.460649763581</v>
+        <v>434.379220499742</v>
       </c>
       <c r="C13" t="n">
-        <v>161.6673644828703</v>
+        <v>424.2215694517706</v>
       </c>
       <c r="D13" t="n">
-        <v>161.6673644828703</v>
+        <v>363.9723605371423</v>
       </c>
       <c r="E13" t="n">
-        <v>102.4810345017982</v>
+        <v>304.7860305560702</v>
       </c>
       <c r="F13" t="n">
-        <v>102.4810345017982</v>
+        <v>245.1280598394563</v>
       </c>
       <c r="G13" t="n">
-        <v>102.4810345017982</v>
+        <v>169.0309954649153</v>
       </c>
       <c r="H13" t="n">
         <v>102.4810345017982</v>
       </c>
       <c r="I13" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499907</v>
+        <v>83.21408766499906</v>
       </c>
       <c r="K13" t="n">
         <v>207.7937882505251</v>
@@ -5209,7 +5209,7 @@
         <v>608.3453994601516</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506345</v>
+        <v>817.7432540506346</v>
       </c>
       <c r="O13" t="n">
         <v>1007.182413387207</v>
@@ -5224,25 +5224,25 @@
         <v>1157.632377415578</v>
       </c>
       <c r="S13" t="n">
-        <v>1063.643285902658</v>
+        <v>1036.745299076875</v>
       </c>
       <c r="T13" t="n">
-        <v>923.2870169759461</v>
+        <v>896.3890301501623</v>
       </c>
       <c r="U13" t="n">
-        <v>728.9194617226551</v>
+        <v>702.021474896871</v>
       </c>
       <c r="V13" t="n">
-        <v>561.0068415386868</v>
+        <v>702.021474896871</v>
       </c>
       <c r="W13" t="n">
-        <v>367.6731243136949</v>
+        <v>702.021474896871</v>
       </c>
       <c r="X13" t="n">
-        <v>367.6731243136949</v>
+        <v>563.5916950498558</v>
       </c>
       <c r="Y13" t="n">
-        <v>238.460649763581</v>
+        <v>434.379220499742</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1304.81466217077</v>
+        <v>1565.08848652551</v>
       </c>
       <c r="C14" t="n">
-        <v>1015.703587761186</v>
+        <v>1565.08848652551</v>
       </c>
       <c r="D14" t="n">
-        <v>1015.703587761186</v>
+        <v>1285.087206010343</v>
       </c>
       <c r="E14" t="n">
-        <v>1015.703587761186</v>
+        <v>983.1241703740591</v>
       </c>
       <c r="F14" t="n">
-        <v>694.3750813289655</v>
+        <v>661.7956639418383</v>
       </c>
       <c r="G14" t="n">
-        <v>371.0937790407625</v>
+        <v>338.5143616536353</v>
       </c>
       <c r="H14" t="n">
-        <v>131.0951888956807</v>
+        <v>98.51577150855367</v>
       </c>
       <c r="I14" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J14" t="n">
-        <v>214.074731475774</v>
+        <v>203.9416620548001</v>
       </c>
       <c r="K14" t="n">
-        <v>535.0575469404662</v>
+        <v>535.0575469404655</v>
       </c>
       <c r="L14" t="n">
-        <v>882.9429200254124</v>
+        <v>882.9429200254117</v>
       </c>
       <c r="M14" t="n">
         <v>1276.1820862785</v>
       </c>
       <c r="N14" t="n">
-        <v>1745.488957807099</v>
+        <v>1745.488957807098</v>
       </c>
       <c r="O14" t="n">
-        <v>2141.469055120815</v>
+        <v>2050.493542279932</v>
       </c>
       <c r="P14" t="n">
-        <v>2369.625951576868</v>
+        <v>2369.625951576867</v>
       </c>
       <c r="Q14" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R14" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S14" t="n">
-        <v>2555.033718104288</v>
+        <v>2460.62742699225</v>
       </c>
       <c r="T14" t="n">
-        <v>2555.033718104288</v>
+        <v>2329.09116498087</v>
       </c>
       <c r="U14" t="n">
-        <v>2392.971066075891</v>
+        <v>2167.028512952474</v>
       </c>
       <c r="V14" t="n">
-        <v>2148.814476229441</v>
+        <v>2167.028512952474</v>
       </c>
       <c r="W14" t="n">
-        <v>2148.814476229441</v>
+        <v>2167.028512952474</v>
       </c>
       <c r="X14" t="n">
-        <v>1859.607020008543</v>
+        <v>2167.028512952474</v>
       </c>
       <c r="Y14" t="n">
-        <v>1558.88784884199</v>
+        <v>1866.309341785921</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>915.7008174040259</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C15" t="n">
-        <v>753.9971446449806</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D15" t="n">
-        <v>615.1585076351927</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E15" t="n">
-        <v>468.1304976920639</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4366996419383</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G15" t="n">
-        <v>204.7081996652228</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H15" t="n">
-        <v>119.4829596720248</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I15" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J15" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K15" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M15" t="n">
         <v>1191.700572135723</v>
@@ -5376,31 +5376,31 @@
         <v>2397.262088318693</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.449962211974</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T15" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U15" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V15" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X15" t="n">
-        <v>1267.641586535708</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y15" t="n">
-        <v>1075.120260185287</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>323.2324359795988</v>
+        <v>441.3568840158672</v>
       </c>
       <c r="C16" t="n">
-        <v>323.2324359795988</v>
+        <v>364.5635987351566</v>
       </c>
       <c r="D16" t="n">
-        <v>262.9832270649704</v>
+        <v>304.3143898205283</v>
       </c>
       <c r="E16" t="n">
-        <v>245.1280598394564</v>
+        <v>245.1280598394562</v>
       </c>
       <c r="F16" t="n">
-        <v>245.1280598394564</v>
+        <v>245.1280598394562</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0309954649154</v>
+        <v>169.0309954649153</v>
       </c>
       <c r="H16" t="n">
         <v>102.4810345017982</v>
       </c>
       <c r="I16" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
         <v>83.21408766499906</v>
@@ -5443,7 +5443,7 @@
         <v>399.3763804916672</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601516</v>
+        <v>608.3453994601515</v>
       </c>
       <c r="N16" t="n">
         <v>817.7432540506345</v>
@@ -5461,25 +5461,25 @@
         <v>1157.632377415578</v>
       </c>
       <c r="S16" t="n">
-        <v>1157.632377415578</v>
+        <v>1036.745299076874</v>
       </c>
       <c r="T16" t="n">
-        <v>1017.276108488865</v>
+        <v>896.3890301501624</v>
       </c>
       <c r="U16" t="n">
-        <v>822.9085532355742</v>
+        <v>702.0214748968713</v>
       </c>
       <c r="V16" t="n">
-        <v>654.9959330516058</v>
+        <v>534.1088547129032</v>
       </c>
       <c r="W16" t="n">
-        <v>461.662215826614</v>
+        <v>534.1088547129032</v>
       </c>
       <c r="X16" t="n">
-        <v>323.2324359795988</v>
+        <v>534.1088547129032</v>
       </c>
       <c r="Y16" t="n">
-        <v>323.2324359795988</v>
+        <v>441.3568840158672</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C17" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D17" t="n">
-        <v>942.7443621478542</v>
+        <v>942.7443621478537</v>
       </c>
       <c r="E17" t="n">
-        <v>715.7657787614933</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F17" t="n">
         <v>469.4217245791958</v>
@@ -5507,58 +5507,58 @@
         <v>221.124874540916</v>
       </c>
       <c r="H17" t="n">
-        <v>56.11073664575753</v>
+        <v>56.11073664575749</v>
       </c>
       <c r="I17" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J17" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K17" t="n">
-        <v>527.7073651707065</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L17" t="n">
-        <v>991.4016840570278</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M17" t="n">
-        <v>1384.640850310116</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N17" t="n">
-        <v>1762.972208997831</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O17" t="n">
-        <v>2067.976793470665</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P17" t="n">
-        <v>2296.133689926718</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q17" t="n">
-        <v>2555.033718104288</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R17" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S17" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T17" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U17" t="n">
-        <v>2391.981869702244</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V17" t="n">
         <v>2222.809732105717</v>
       </c>
       <c r="W17" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>915.7008174040259</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C18" t="n">
-        <v>753.9971446449806</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D18" t="n">
-        <v>615.1585076351927</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E18" t="n">
-        <v>468.1304976920639</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F18" t="n">
-        <v>333.4366996419383</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G18" t="n">
-        <v>204.7081996652228</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H18" t="n">
-        <v>104.7703422119209</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I18" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J18" t="n">
         <v>111.3548208951919</v>
@@ -5613,31 +5613,31 @@
         <v>2397.262088318693</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.449962211974</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T18" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U18" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V18" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W18" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X18" t="n">
-        <v>1267.641586535708</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y18" t="n">
-        <v>1075.120260185287</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.02211951749103</v>
+        <v>54.02211951749096</v>
       </c>
       <c r="C19" t="n">
-        <v>52.21328648670354</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670354</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670354</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="F19" t="n">
-        <v>52.21328648670354</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="G19" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H19" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I19" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J19" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K19" t="n">
-        <v>84.70486210672917</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L19" t="n">
         <v>185.3119415069887</v>
@@ -5683,40 +5683,40 @@
         <v>303.3054476345904</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9465500458449</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O19" t="n">
-        <v>566.4101965415346</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P19" t="n">
-        <v>629.3786802696724</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q19" t="n">
-        <v>629.3786802696724</v>
+        <v>629.378680269672</v>
       </c>
       <c r="R19" t="n">
-        <v>629.3786802696724</v>
+        <v>629.378680269672</v>
       </c>
       <c r="S19" t="n">
-        <v>583.4760541808921</v>
+        <v>583.4760541808919</v>
       </c>
       <c r="T19" t="n">
-        <v>518.1042375041031</v>
+        <v>518.1042375041029</v>
       </c>
       <c r="U19" t="n">
-        <v>398.7211345007353</v>
+        <v>398.721134500735</v>
       </c>
       <c r="V19" t="n">
-        <v>305.7929665666901</v>
+        <v>305.7929665666899</v>
       </c>
       <c r="W19" t="n">
-        <v>187.4437015916214</v>
+        <v>187.4437015916212</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9983739945293</v>
+        <v>123.9983739945292</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.77035169433864</v>
+        <v>69.77035169433856</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C20" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D20" t="n">
-        <v>942.7443621478543</v>
+        <v>942.7443621478538</v>
       </c>
       <c r="E20" t="n">
-        <v>715.7657787614934</v>
+        <v>715.7657787614929</v>
       </c>
       <c r="F20" t="n">
-        <v>469.4217245791959</v>
+        <v>469.4217245791955</v>
       </c>
       <c r="G20" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409157</v>
       </c>
       <c r="H20" t="n">
-        <v>56.11073664575748</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I20" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J20" t="n">
-        <v>123.0992186348914</v>
+        <v>163.2749745479468</v>
       </c>
       <c r="K20" t="n">
-        <v>363.2395906796742</v>
+        <v>567.8831210837619</v>
       </c>
       <c r="L20" t="n">
-        <v>711.1249637646204</v>
+        <v>1080.236268659741</v>
       </c>
       <c r="M20" t="n">
-        <v>1104.364130017708</v>
+        <v>1473.475434912828</v>
       </c>
       <c r="N20" t="n">
-        <v>1482.695488705424</v>
+        <v>1851.806793600544</v>
       </c>
       <c r="O20" t="n">
-        <v>1952.16784766929</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P20" t="n">
-        <v>2344.792518616376</v>
+        <v>2384.968274529431</v>
       </c>
       <c r="Q20" t="n">
-        <v>2555.033718104288</v>
+        <v>2479.400528215968</v>
       </c>
       <c r="R20" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="S20" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T20" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U20" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V20" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W20" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y20" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>915.7008174040259</v>
+        <v>915.7008174040245</v>
       </c>
       <c r="C21" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449792</v>
       </c>
       <c r="D21" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351913</v>
       </c>
       <c r="E21" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920625</v>
       </c>
       <c r="F21" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419369</v>
       </c>
       <c r="G21" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652215</v>
       </c>
       <c r="H21" t="n">
-        <v>119.4829596720248</v>
+        <v>104.7703422119195</v>
       </c>
       <c r="I21" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J21" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L21" t="n">
         <v>706.6672186254962</v>
@@ -5850,31 +5850,31 @@
         <v>2397.262088318693</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R21" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.449962211974</v>
+        <v>2342.449962211972</v>
       </c>
       <c r="T21" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U21" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V21" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W21" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X21" t="n">
-        <v>1267.641586535708</v>
+        <v>1267.641586535706</v>
       </c>
       <c r="Y21" t="n">
-        <v>1075.120260185287</v>
+        <v>1075.120260185285</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.02211951749092</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C22" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E22" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F22" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G22" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H22" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I22" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J22" t="n">
-        <v>51.10067436208575</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K22" t="n">
-        <v>84.70486210672917</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L22" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M22" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N22" t="n">
         <v>467.9465500458442</v>
@@ -5941,19 +5941,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V22" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W22" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X22" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5990,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K23" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.060512746685</v>
+        <v>751.3007196776763</v>
       </c>
       <c r="M23" t="n">
-        <v>1433.299678999773</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N23" t="n">
-        <v>1811.631037687489</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O23" t="n">
-        <v>2232.444567961696</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P23" t="n">
-        <v>2460.601464417749</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q23" t="n">
-        <v>2555.033718104286</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R23" t="n">
         <v>2555.033718104287</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E24" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F24" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G24" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H24" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I24" t="n">
         <v>51.10067436208573</v>
@@ -6102,16 +6102,16 @@
         <v>1935.270065976269</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X24" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y24" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="25">
@@ -6145,7 +6145,7 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J25" t="n">
-        <v>51.10067436208573</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K25" t="n">
         <v>130.9236227683826</v>
@@ -6206,67 +6206,67 @@
         <v>1386.425607044544</v>
       </c>
       <c r="D26" t="n">
-        <v>1143.562317889523</v>
+        <v>1143.562317889524</v>
       </c>
       <c r="E26" t="n">
         <v>878.7372736133866</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413131</v>
+        <v>594.546758541313</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132571</v>
+        <v>308.4034476132568</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283224</v>
+        <v>105.5428488283222</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487439</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J26" t="n">
         <v>262.0593281006427</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183881</v>
+        <v>629.5741583183883</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.73985875243</v>
+        <v>1059.739858752427</v>
       </c>
       <c r="M26" t="n">
-        <v>1580.353483178481</v>
+        <v>1580.353483178478</v>
       </c>
       <c r="N26" t="n">
-        <v>2086.059300039159</v>
+        <v>2086.059300039156</v>
       </c>
       <c r="O26" t="n">
-        <v>2518.438342684956</v>
+        <v>2518.438342684953</v>
       </c>
       <c r="P26" t="n">
-        <v>2873.969697313972</v>
+        <v>2873.969697313969</v>
       </c>
       <c r="Q26" t="n">
-        <v>3095.776409173471</v>
+        <v>3095.776409173469</v>
       </c>
       <c r="R26" t="n">
-        <v>3134.31628274372</v>
+        <v>3134.316282743718</v>
       </c>
       <c r="S26" t="n">
-        <v>3077.047982991829</v>
+        <v>3077.047982991828</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.649712340597</v>
+        <v>2982.649712340595</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672347</v>
+        <v>2857.725051672345</v>
       </c>
       <c r="V26" t="n">
-        <v>2650.706453186044</v>
+        <v>2650.706453186043</v>
       </c>
       <c r="W26" t="n">
-        <v>2418.132198661401</v>
+        <v>2418.1321986614</v>
       </c>
       <c r="X26" t="n">
-        <v>2166.06273380065</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y26" t="n">
         <v>1902.481553994244</v>
@@ -6300,7 +6300,7 @@
         <v>131.0686109648134</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487439</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J27" t="n">
         <v>122.9404721879805</v>
@@ -6327,25 +6327,25 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R27" t="n">
-        <v>2506.835100492021</v>
+        <v>2521.547717952126</v>
       </c>
       <c r="S27" t="n">
-        <v>2354.035613504762</v>
+        <v>2368.748230964866</v>
       </c>
       <c r="T27" t="n">
-        <v>2165.350509670747</v>
+        <v>2180.063127130852</v>
       </c>
       <c r="U27" t="n">
-        <v>1946.855717269057</v>
+        <v>1961.568334729162</v>
       </c>
       <c r="V27" t="n">
-        <v>1718.460094717391</v>
+        <v>1733.172712177496</v>
       </c>
       <c r="W27" t="n">
-        <v>1477.144225950701</v>
+        <v>1491.856843410806</v>
       </c>
       <c r="X27" t="n">
-        <v>1279.227237828496</v>
+        <v>1293.9398552886</v>
       </c>
       <c r="Y27" t="n">
         <v>1101.418528938179</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042413</v>
+        <v>252.6345665042402</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836776</v>
+        <v>212.9792725836766</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291963</v>
+        <v>189.8680550291955</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082711</v>
+        <v>167.8197164082704</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518041</v>
+        <v>145.2997370518037</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374101</v>
+        <v>106.3406640374098</v>
       </c>
       <c r="H28" t="n">
-        <v>76.9286944344399</v>
+        <v>76.92869443443972</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487439</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J28" t="n">
-        <v>62.68632565487439</v>
+        <v>131.1986842898678</v>
       </c>
       <c r="K28" t="n">
-        <v>223.6649715724804</v>
+        <v>180.1414782028753</v>
       </c>
       <c r="L28" t="n">
-        <v>451.6465091457026</v>
+        <v>280.7485576031348</v>
       </c>
       <c r="M28" t="n">
-        <v>569.6400152733042</v>
+        <v>526.1165219036993</v>
       </c>
       <c r="N28" t="n">
-        <v>734.1428735727459</v>
+        <v>771.9133218262624</v>
       </c>
       <c r="O28" t="n">
-        <v>959.9809782413981</v>
+        <v>997.7514264949149</v>
       </c>
       <c r="P28" t="n">
-        <v>1150.323920142499</v>
+        <v>1060.719910223053</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142499</v>
+        <v>1150.323920142496</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.762814374633</v>
+        <v>1130.76281437463</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396076</v>
+        <v>1047.013727396074</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295109</v>
+        <v>943.795449829509</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363667</v>
+        <v>786.565885936365</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125453</v>
+        <v>655.7912571125437</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312477004</v>
+        <v>499.5955312476989</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608321</v>
+        <v>398.3037427608308</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.2292595708652</v>
+        <v>306.229259570864</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.398690093982</v>
+        <v>1638.39869009398</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.425607044545</v>
+        <v>1386.425607044544</v>
       </c>
       <c r="D29" t="n">
-        <v>1143.562317889524</v>
+        <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133872</v>
+        <v>878.7372736133859</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413135</v>
+        <v>594.5467585413123</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132574</v>
+        <v>308.4034476132565</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5428488283224</v>
+        <v>105.5428488283222</v>
       </c>
       <c r="I29" t="n">
-        <v>62.6863256548744</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J29" t="n">
-        <v>262.0593281006427</v>
+        <v>262.0593281006428</v>
       </c>
       <c r="K29" t="n">
-        <v>629.5741583183882</v>
+        <v>629.5741583183884</v>
       </c>
       <c r="L29" t="n">
         <v>1104.833989576297</v>
@@ -6473,40 +6473,40 @@
         <v>1625.447614002348</v>
       </c>
       <c r="N29" t="n">
-        <v>2131.153430863026</v>
+        <v>2131.153430863027</v>
       </c>
       <c r="O29" t="n">
-        <v>2518.438342684956</v>
+        <v>2518.438342684953</v>
       </c>
       <c r="P29" t="n">
-        <v>2873.969697313972</v>
+        <v>2873.969697313968</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173472</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R29" t="n">
-        <v>3134.31628274372</v>
+        <v>3134.316282743717</v>
       </c>
       <c r="S29" t="n">
-        <v>3077.04798299183</v>
+        <v>3077.047982991827</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.649712340597</v>
+        <v>2982.649712340595</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672347</v>
+        <v>2857.725051672345</v>
       </c>
       <c r="V29" t="n">
-        <v>2650.706453186044</v>
+        <v>2650.706453186042</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.132198661401</v>
+        <v>2418.132198661399</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800651</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994245</v>
+        <v>1902.481553994243</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>927.2864686968139</v>
+        <v>941.9990861569185</v>
       </c>
       <c r="C30" t="n">
-        <v>765.5827959377687</v>
+        <v>780.2954133978732</v>
       </c>
       <c r="D30" t="n">
         <v>641.4567763880852</v>
       </c>
       <c r="E30" t="n">
-        <v>494.4287664449565</v>
+        <v>494.4287664449564</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7349683948308</v>
+        <v>359.7349683948307</v>
       </c>
       <c r="G30" t="n">
-        <v>231.0064684181154</v>
+        <v>231.0064684181153</v>
       </c>
       <c r="H30" t="n">
         <v>131.0686109648134</v>
       </c>
       <c r="I30" t="n">
-        <v>62.6863256548744</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J30" t="n">
         <v>122.9404721879805</v>
       </c>
       <c r="K30" t="n">
-        <v>352.4310247481692</v>
+        <v>352.4310247481691</v>
       </c>
       <c r="L30" t="n">
-        <v>718.2528699182849</v>
+        <v>718.2528699182848</v>
       </c>
       <c r="M30" t="n">
         <v>1203.286223428511</v>
@@ -6564,28 +6564,28 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R30" t="n">
-        <v>2506.835100492021</v>
+        <v>2521.547717952126</v>
       </c>
       <c r="S30" t="n">
-        <v>2354.035613504762</v>
+        <v>2368.748230964866</v>
       </c>
       <c r="T30" t="n">
-        <v>2165.350509670747</v>
+        <v>2180.063127130852</v>
       </c>
       <c r="U30" t="n">
-        <v>1946.855717269057</v>
+        <v>1961.568334729162</v>
       </c>
       <c r="V30" t="n">
-        <v>1718.460094717391</v>
+        <v>1733.172712177496</v>
       </c>
       <c r="W30" t="n">
-        <v>1477.144225950701</v>
+        <v>1491.856843410806</v>
       </c>
       <c r="X30" t="n">
-        <v>1279.227237828496</v>
+        <v>1293.9398552886</v>
       </c>
       <c r="Y30" t="n">
-        <v>1086.705911478075</v>
+        <v>1101.418528938179</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.6345665042409</v>
+        <v>252.6345665042398</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836772</v>
+        <v>212.9792725836763</v>
       </c>
       <c r="D31" t="n">
-        <v>189.868055029196</v>
+        <v>189.8680550291952</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082708</v>
+        <v>167.8197164082702</v>
       </c>
       <c r="F31" t="n">
-        <v>145.299737051804</v>
+        <v>145.2997370518035</v>
       </c>
       <c r="G31" t="n">
-        <v>106.34066403741</v>
+        <v>106.3406640374097</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443985</v>
+        <v>76.92869443443965</v>
       </c>
       <c r="I31" t="n">
-        <v>62.6863256548744</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J31" t="n">
-        <v>62.6863256548744</v>
+        <v>131.1986842898679</v>
       </c>
       <c r="K31" t="n">
-        <v>142.3710299493575</v>
+        <v>292.177330207474</v>
       </c>
       <c r="L31" t="n">
-        <v>370.3525675225796</v>
+        <v>520.1588677806964</v>
       </c>
       <c r="M31" t="n">
-        <v>615.720531823144</v>
+        <v>765.5268320812609</v>
       </c>
       <c r="N31" t="n">
-        <v>861.5173317457071</v>
+        <v>899.2877799992243</v>
       </c>
       <c r="O31" t="n">
-        <v>1087.355436414359</v>
+        <v>997.751426494914</v>
       </c>
       <c r="P31" t="n">
-        <v>1150.323920142497</v>
+        <v>1060.719910223052</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142497</v>
+        <v>1150.323920142495</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.762814374631</v>
+        <v>1130.762814374629</v>
       </c>
       <c r="S31" t="n">
-        <v>1047.013727396075</v>
+        <v>1047.013727396073</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295101</v>
+        <v>943.7954498295082</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363659</v>
+        <v>786.5658859363642</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125446</v>
+        <v>655.791257112543</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476998</v>
+        <v>499.5955312476983</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608316</v>
+        <v>398.3037427608302</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708647</v>
+        <v>306.2292595708635</v>
       </c>
     </row>
     <row r="32">
@@ -6683,52 +6683,52 @@
         <v>1100.068945336554</v>
       </c>
       <c r="E32" t="n">
-        <v>843.4407289646302</v>
+        <v>843.4407289646307</v>
       </c>
       <c r="F32" t="n">
-        <v>567.4470417967701</v>
+        <v>567.4470417967707</v>
       </c>
       <c r="G32" t="n">
-        <v>289.5005587729277</v>
+        <v>289.5005587729283</v>
       </c>
       <c r="H32" t="n">
-        <v>94.83678789220664</v>
+        <v>94.83678789220656</v>
       </c>
       <c r="I32" t="n">
-        <v>60.17709262297227</v>
+        <v>60.17709262297225</v>
       </c>
       <c r="J32" t="n">
-        <v>267.5838060976603</v>
+        <v>267.5838060976604</v>
       </c>
       <c r="K32" t="n">
-        <v>643.1323473443255</v>
+        <v>507.7241781424432</v>
       </c>
       <c r="L32" t="n">
-        <v>1126.425889631154</v>
+        <v>886.0759409838037</v>
       </c>
       <c r="M32" t="n">
-        <v>1655.073225086124</v>
+        <v>1414.723276438774</v>
       </c>
       <c r="N32" t="n">
-        <v>2168.812752975723</v>
+        <v>1928.462804328372</v>
       </c>
       <c r="O32" t="n">
-        <v>2609.225506650439</v>
+        <v>2368.875558003089</v>
       </c>
       <c r="P32" t="n">
-        <v>2837.382403106492</v>
+        <v>2732.440623661024</v>
       </c>
       <c r="Q32" t="n">
-        <v>2962.281046549445</v>
+        <v>2962.281046549444</v>
       </c>
       <c r="R32" t="n">
-        <v>3008.854631148613</v>
+        <v>3008.854631148612</v>
       </c>
       <c r="S32" t="n">
-        <v>2959.783159300937</v>
+        <v>2959.783159300936</v>
       </c>
       <c r="T32" t="n">
-        <v>2873.581716553918</v>
+        <v>2873.581716553917</v>
       </c>
       <c r="U32" t="n">
         <v>2756.853883789881</v>
@@ -6737,10 +6737,10 @@
         <v>2558.032113207792</v>
       </c>
       <c r="W32" t="n">
-        <v>2333.654686587363</v>
+        <v>2333.654686587362</v>
       </c>
       <c r="X32" t="n">
-        <v>2089.782049630826</v>
+        <v>2089.782049630825</v>
       </c>
       <c r="Y32" t="n">
         <v>1834.397697728633</v>
@@ -6774,7 +6774,7 @@
         <v>128.5593779329113</v>
       </c>
       <c r="I33" t="n">
-        <v>60.17709262297227</v>
+        <v>60.17709262297225</v>
       </c>
       <c r="J33" t="n">
         <v>120.4312391560784</v>
@@ -6801,22 +6801,22 @@
         <v>2564.110136365174</v>
       </c>
       <c r="R33" t="n">
-        <v>2504.325867460119</v>
+        <v>2519.038484920224</v>
       </c>
       <c r="S33" t="n">
-        <v>2351.52638047286</v>
+        <v>2366.238997932964</v>
       </c>
       <c r="T33" t="n">
-        <v>2162.841276638845</v>
+        <v>2177.55389409895</v>
       </c>
       <c r="U33" t="n">
-        <v>1944.346484237155</v>
+        <v>1959.05910169726</v>
       </c>
       <c r="V33" t="n">
-        <v>1715.950861685489</v>
+        <v>1730.663479145594</v>
       </c>
       <c r="W33" t="n">
-        <v>1474.634992918799</v>
+        <v>1489.347610378904</v>
       </c>
       <c r="X33" t="n">
         <v>1291.430622256698</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192.7475381428437</v>
+        <v>192.747538142843</v>
       </c>
       <c r="C34" t="n">
-        <v>161.2890721264936</v>
+        <v>161.289072126493</v>
       </c>
       <c r="D34" t="n">
-        <v>146.3746824762259</v>
+        <v>146.3746824762255</v>
       </c>
       <c r="E34" t="n">
-        <v>132.5231717595144</v>
+        <v>132.523171759514</v>
       </c>
       <c r="F34" t="n">
-        <v>118.2000203072611</v>
+        <v>118.2000203072608</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43777519708071</v>
+        <v>87.43777519708051</v>
       </c>
       <c r="H34" t="n">
-        <v>66.22263349832414</v>
+        <v>66.22263349832403</v>
       </c>
       <c r="I34" t="n">
-        <v>60.17709262297227</v>
+        <v>60.17709262297225</v>
       </c>
       <c r="J34" t="n">
         <v>136.7231622868854</v>
       </c>
       <c r="K34" t="n">
-        <v>170.3273500315288</v>
+        <v>170.3273500315289</v>
       </c>
       <c r="L34" t="n">
-        <v>406.3425986336707</v>
+        <v>406.3425986336708</v>
       </c>
       <c r="M34" t="n">
-        <v>524.3361047612724</v>
+        <v>524.3361047612725</v>
       </c>
       <c r="N34" t="n">
-        <v>778.1666157127552</v>
+        <v>757.5955894709861</v>
       </c>
       <c r="O34" t="n">
-        <v>876.6302622084448</v>
+        <v>856.0592359666757</v>
       </c>
       <c r="P34" t="n">
-        <v>939.5987459365826</v>
+        <v>919.0277196948135</v>
       </c>
       <c r="Q34" t="n">
-        <v>1016.665440643178</v>
+        <v>1016.665440643177</v>
       </c>
       <c r="R34" t="n">
-        <v>1005.301162779526</v>
+        <v>1005.301162779525</v>
       </c>
       <c r="S34" t="n">
-        <v>929.748903705183</v>
+        <v>929.7489037051819</v>
       </c>
       <c r="T34" t="n">
-        <v>834.7274540428315</v>
+        <v>834.7274540428303</v>
       </c>
       <c r="U34" t="n">
-        <v>685.6947180539009</v>
+        <v>685.6947180538999</v>
       </c>
       <c r="V34" t="n">
-        <v>563.1169171342932</v>
+        <v>563.1169171342922</v>
       </c>
       <c r="W34" t="n">
-        <v>415.1180191736619</v>
+        <v>415.118019173661</v>
       </c>
       <c r="X34" t="n">
-        <v>322.0230585910072</v>
+        <v>322.0230585910064</v>
       </c>
       <c r="Y34" t="n">
-        <v>238.1454033052539</v>
+        <v>238.1454033052532</v>
       </c>
     </row>
     <row r="35">
@@ -6932,16 +6932,16 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>403.41534659273</v>
+        <v>567.8831210837625</v>
       </c>
       <c r="L35" t="n">
-        <v>751.3007196776763</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M35" t="n">
         <v>1309.007660421797</v>
@@ -6953,7 +6953,7 @@
         <v>1992.343603582346</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q35" t="n">
         <v>2479.400528215969</v>
@@ -7011,13 +7011,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7038,7 +7038,7 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S36" t="n">
         <v>2357.162579672078</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670347</v>
+        <v>65.91841943632294</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>64.80580731170521</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208574</v>
+        <v>73.07245222190386</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L37" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7169,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
         <v>123.0992186348914</v>
@@ -7184,16 +7184,16 @@
         <v>1104.364130017708</v>
       </c>
       <c r="N38" t="n">
-        <v>1598.504434506798</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O38" t="n">
-        <v>1903.509018979632</v>
+        <v>1827.875829091314</v>
       </c>
       <c r="P38" t="n">
-        <v>2296.133689926718</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C39" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D39" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E39" t="n">
         <v>482.8431151521678</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y39" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>65.54268635500836</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>81.02642599070933</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>96.04791054150586</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>94.93529841688813</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L40" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M40" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N40" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7406,7 +7406,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
         <v>123.0992186348914</v>
@@ -7415,16 +7415,16 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>875.5927382556528</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M41" t="n">
-        <v>1268.831904508741</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N41" t="n">
-        <v>1687.339019109512</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O41" t="n">
-        <v>1992.343603582346</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P41" t="n">
         <v>2220.500500038399</v>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E42" t="n">
         <v>482.8431151521678</v>
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S42" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X42" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y42" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208573</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672914</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L43" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M43" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N43" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O43" t="n">
         <v>566.4101965415339</v>
@@ -7600,19 +7600,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W43" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X43" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C44" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
         <v>942.7443621478542</v>
@@ -7658,16 +7658,16 @@
         <v>1268.831904508741</v>
       </c>
       <c r="N44" t="n">
-        <v>1811.631037687489</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O44" t="n">
-        <v>2232.444567961697</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P44" t="n">
-        <v>2460.60146441775</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q44" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7688,7 +7688,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
         <v>1588.124215583246</v>
@@ -7749,7 +7749,7 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S45" t="n">
         <v>2357.162579672078</v>
@@ -7801,10 +7801,10 @@
         <v>51.10067436208574</v>
       </c>
       <c r="I46" t="n">
-        <v>74.23504503930329</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>74.23504503930329</v>
+        <v>97.31943502373986</v>
       </c>
       <c r="K46" t="n">
         <v>130.9236227683833</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -7988,16 +7988,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>568.5510017355793</v>
+        <v>517.082441846289</v>
       </c>
       <c r="O2" t="n">
-        <v>466.2319882913994</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8058,7 +8058,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
@@ -8067,7 +8067,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>440.887782605346</v>
+        <v>209.0791436556619</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>297.1946741574588</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8234,7 +8234,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>224.5409279685858</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8304,13 +8304,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>600.6529294339224</v>
       </c>
       <c r="O6" t="n">
-        <v>455.019735035989</v>
+        <v>266.2293398775514</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8529,16 +8529,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>105.8554040863129</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425325</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566041</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566041</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566041</v>
+        <v>273.1004740566028</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>170.8857652311883</v>
+        <v>318.1152213678984</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>237.5986042436309</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>79.194569388259</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091663</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>130.220899391266</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>160.4420255081129</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479851</v>
+        <v>230.1801244097135</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>89.82535758250307</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>65.96927789041183</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548195</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.0613910094477</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079554</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348596</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>26.6290069575261</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>166.2334939821287</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>191.4003800527419</v>
       </c>
       <c r="X13" t="n">
-        <v>137.045482048545</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.67619190329782</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>286.2199636654877</v>
       </c>
       <c r="D14" t="n">
-        <v>277.2012677100158</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>298.9434052799213</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>32.25362321325574</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091667</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.220899391266</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W14" t="n">
-        <v>267.0151234259421</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>286.3153816586886</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250312</v>
+        <v>89.82535758250306</v>
       </c>
       <c r="C16" t="n">
-        <v>76.0253524279036</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>40.91785112800265</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.06139100944775</v>
+        <v>59.06139100944769</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>119.6782075553164</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>191.4003800527419</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>137.045482048545</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.9203498046128</v>
+        <v>36.09589881454707</v>
       </c>
     </row>
     <row r="17">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>983331.8405931903</v>
+        <v>983331.84059319</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>983331.8405931899</v>
+        <v>983331.84059319</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26317,7 @@
         <v>211096.6166359</v>
       </c>
       <c r="D2" t="n">
-        <v>211096.6166358998</v>
+        <v>211096.6166358999</v>
       </c>
       <c r="E2" t="n">
         <v>183333.0550258489</v>
@@ -26326,19 +26326,19 @@
         <v>183333.0550258488</v>
       </c>
       <c r="G2" t="n">
-        <v>211096.6166359003</v>
+        <v>211096.6166359002</v>
       </c>
       <c r="H2" t="n">
-        <v>211096.6166359003</v>
+        <v>211096.6166359002</v>
       </c>
       <c r="I2" t="n">
-        <v>211096.6166359003</v>
+        <v>211096.6166359002</v>
       </c>
       <c r="J2" t="n">
         <v>211096.6166358999</v>
       </c>
       <c r="K2" t="n">
-        <v>211096.6166358999</v>
+        <v>211096.6166358998</v>
       </c>
       <c r="L2" t="n">
         <v>211096.6166358998</v>
@@ -26353,7 +26353,7 @@
         <v>211096.6166359003</v>
       </c>
       <c r="P2" t="n">
-        <v>211096.6166359003</v>
+        <v>211096.6166359002</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165529.9134506506</v>
+        <v>165529.9134506508</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.038208746988</v>
+        <v>9743.038208746864</v>
       </c>
       <c r="E3" t="n">
-        <v>107390.8010757636</v>
+        <v>107390.8010757635</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193919</v>
+        <v>59387.68618193916</v>
       </c>
       <c r="H3" t="n">
+        <v>2.273736754432321e-11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>210668.4794422432</v>
+      </c>
+      <c r="K3" t="n">
         <v>4.547473508864641e-11</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>210668.4794422431</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>65879.57388207637</v>
+        <v>65879.57388207629</v>
       </c>
       <c r="M3" t="n">
-        <v>23482.50932456565</v>
+        <v>23482.50932456556</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732352</v>
+        <v>43541.16890732364</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194229.0330603502</v>
+        <v>194229.0330603501</v>
       </c>
       <c r="C4" t="n">
-        <v>194229.0330603503</v>
+        <v>194229.0330603501</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332931</v>
@@ -26427,7 +26427,7 @@
         <v>118181.7253353295</v>
       </c>
       <c r="F4" t="n">
-        <v>118181.7253353294</v>
+        <v>118181.7253353295</v>
       </c>
       <c r="G4" t="n">
         <v>175623.1205402357</v>
@@ -26436,13 +26436,13 @@
         <v>175623.1205402357</v>
       </c>
       <c r="I4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="J4" t="n">
-        <v>176368.8129357921</v>
+        <v>176368.812935792</v>
       </c>
       <c r="K4" t="n">
-        <v>176368.8129357921</v>
+        <v>176368.812935792</v>
       </c>
       <c r="L4" t="n">
         <v>176200.8165314007</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63659.01753266579</v>
+        <v>63659.01753266581</v>
       </c>
       <c r="C5" t="n">
-        <v>63659.01753266579</v>
+        <v>63659.01753266581</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46561.98765560958</v>
+        <v>46561.98765560957</v>
       </c>
       <c r="F5" t="n">
-        <v>46561.98765560958</v>
+        <v>46561.98765560957</v>
       </c>
       <c r="G5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="H5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="I5" t="n">
         <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
-        <v>58458.01489582857</v>
+        <v>58458.01489582856</v>
       </c>
       <c r="K5" t="n">
-        <v>58458.01489582859</v>
+        <v>58458.01489582855</v>
       </c>
       <c r="L5" t="n">
-        <v>57233.2059254115</v>
+        <v>57233.20592541149</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-212321.3474077667</v>
+        <v>-212321.3474077668</v>
       </c>
       <c r="C6" t="n">
-        <v>-46791.43395711605</v>
+        <v>-46791.43395711593</v>
       </c>
       <c r="D6" t="n">
-        <v>-49988.21554305172</v>
+        <v>-49988.21554305151</v>
       </c>
       <c r="E6" t="n">
-        <v>-88801.45904085381</v>
+        <v>-89053.85505549054</v>
       </c>
       <c r="F6" t="n">
-        <v>18589.34203490984</v>
+        <v>18336.94602027295</v>
       </c>
       <c r="G6" t="n">
-        <v>-76717.00697892094</v>
+        <v>-76717.00697892095</v>
       </c>
       <c r="H6" t="n">
-        <v>-17329.32079698191</v>
+        <v>-17329.32079698183</v>
       </c>
       <c r="I6" t="n">
+        <v>-17329.3207969818</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-234398.6906379639</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-23730.21119572082</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-88216.9797029887</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-40811.83012154725</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-17329.32079698169</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-60870.48970430542</v>
+      </c>
+      <c r="P6" t="n">
         <v>-17329.32079698174</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-234398.6906379638</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-23730.21119572077</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-88216.97970298874</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-40811.83012154742</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-17329.32079698177</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-60870.48970430525</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-17329.32079698166</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>91.89445741503295</v>
       </c>
       <c r="F2" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,13 +26707,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="K2" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L2" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662137</v>
+        <v>493.9377883662141</v>
       </c>
       <c r="C4" t="n">
-        <v>493.9377883662137</v>
+        <v>493.9377883662141</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="F4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="G4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="H4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="I4" t="n">
         <v>638.7584295260716</v>
       </c>
       <c r="J4" t="n">
-        <v>783.5790706859299</v>
+        <v>783.5790706859294</v>
       </c>
       <c r="K4" t="n">
-        <v>783.57907068593</v>
+        <v>783.5790706859293</v>
       </c>
       <c r="L4" t="n">
-        <v>752.2136577871534</v>
+        <v>752.2136577871531</v>
       </c>
       <c r="M4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="N4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="N4" t="n">
-        <v>638.7584295260717</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260716</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742398</v>
+        <v>74.23460772742395</v>
       </c>
       <c r="H2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>54.42646113415455</v>
+      </c>
+      <c r="K2" t="n">
         <v>5.684341886080801e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>54.42646113415441</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>82.34946735259545</v>
+        <v>82.34946735259537</v>
       </c>
       <c r="M2" t="n">
-        <v>29.35313665570706</v>
+        <v>29.35313665570695</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415441</v>
+        <v>54.42646113415455</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662137</v>
+        <v>493.9377883662141</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36541289877664</v>
+        <v>31.36541289877624</v>
       </c>
       <c r="E4" t="n">
-        <v>113.4552282610816</v>
+        <v>113.4552282610814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742398</v>
+        <v>74.23460772742395</v>
       </c>
       <c r="M2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>54.42646113415455</v>
+      </c>
+      <c r="P2" t="n">
         <v>5.684341886080801e-14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>54.42646113415441</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.9377883662137</v>
+        <v>493.9377883662141</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.36541289877664</v>
+        <v>31.36541289877624</v>
       </c>
       <c r="M4" t="n">
-        <v>113.4552282610816</v>
+        <v>113.4552282610814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>36.4266668749984</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>287.0245680543416</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27464,16 +27464,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10.70932088106123</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,13 +27512,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>109.8976269313619</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>137.0372983783948</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
@@ -27558,7 +27558,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>19.78590426723547</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>156.2842786377497</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>236.3968158294038</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27682,7 +27682,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>42.74848394735734</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>8.398047109050424</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -27774,16 +27774,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>66.54594739663632</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -27792,7 +27792,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -27819,19 +27819,19 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>130.1562720991029</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27853,10 +27853,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>43.87163827606969</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>113.0037094427981</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V9" t="n">
-        <v>191.2262604232856</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.418629774006796</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28068,7 +28068,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28111,10 +28111,10 @@
         <v>91.89445741503295</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>91.89445741503295</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28126,13 +28126,13 @@
         <v>91.89445741503295</v>
       </c>
       <c r="O11" t="n">
-        <v>79.49647998155655</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>79.49647998155564</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.89445741503295</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>91.89445741503295</v>
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I12" t="n">
-        <v>14.56549128550282</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="C14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="D14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="E14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="G14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="H14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="I14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="J14" t="n">
-        <v>91.8944574150329</v>
+        <v>81.65903375748354</v>
       </c>
       <c r="K14" t="n">
-        <v>81.65903375748425</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,40 +28360,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="O14" t="n">
-        <v>91.8944574150329</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="R14" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="T14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="U14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="V14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="W14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="X14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>14.56549128550283</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="C16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="D16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="E16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="G16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="H16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="I16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="J16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="K16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="L16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="M16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="N16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="O16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="P16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="R16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="S16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="T16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="U16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="V16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="W16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="X16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
     </row>
     <row r="17">
@@ -28585,16 +28585,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>116.9787331327021</v>
-      </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.58157162934936</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="R17" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>166.1290651424569</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>14.56549128550282</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>14.56549128550398</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>46.68561682995367</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280113</v>
       </c>
       <c r="R19" t="n">
         <v>148.0265635717656</v>
@@ -28822,13 +28822,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>40.58157162934889</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28837,16 +28837,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="P20" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>116.9787331327022</v>
-      </c>
-      <c r="R20" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>14.56549128550284</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>14.56549128550415</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29062,19 +29062,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>40.58157162934941</v>
+      </c>
+      <c r="M23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" t="n">
-        <v>116.9787331327004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.56549128550325</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29174,7 +29174,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29217,10 +29217,10 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K25" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="E26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="F26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="G26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="H26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="J26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="L26" t="n">
-        <v>83.11144176676345</v>
+        <v>83.11144176676021</v>
       </c>
       <c r="M26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="N26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="O26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="P26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="U26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="V26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="W26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="X26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
     </row>
     <row r="27">
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.56549128550367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="C28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="D28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="F28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="G28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="J28" t="n">
-        <v>59.456666199969</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="K28" t="n">
-        <v>128.6610688615784</v>
+        <v>15.49354158420616</v>
       </c>
       <c r="L28" t="n">
-        <v>128.6610688615784</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="N28" t="n">
-        <v>46.54597631297098</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="O28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="P28" t="n">
-        <v>128.6610688615784</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.15196793284785</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="R28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="S28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="V28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="X28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O29" t="n">
-        <v>83.11144176676379</v>
+        <v>83.11144176675964</v>
       </c>
       <c r="P29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y29" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="30">
@@ -29594,7 +29594,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>14.56549128550347</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J31" t="n">
-        <v>59.456666199969</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K31" t="n">
-        <v>46.54597631296936</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N31" t="n">
-        <v>128.6610688615785</v>
+        <v>15.49354158420515</v>
       </c>
       <c r="O31" t="n">
-        <v>128.6610688615785</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.15196793284785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="C32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="D32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="E32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="F32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="G32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="H32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="I32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="K32" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>136.7759284867499</v>
+        <v>30.77413106708508</v>
       </c>
       <c r="M32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="N32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="O32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>136.77592848675</v>
       </c>
       <c r="Q32" t="n">
-        <v>30.77413106708643</v>
+        <v>136.77592848675</v>
       </c>
       <c r="R32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="S32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="T32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="U32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="V32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="W32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="X32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="Y32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
     </row>
     <row r="33">
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29891,7 +29891,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>14.56549128550367</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29904,43 +29904,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="C34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="D34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="E34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="F34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="G34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="H34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="I34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="J34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>136.7759284867499</v>
+        <v>115.9971141011244</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>115.997114101126</v>
+        <v>136.77592848675</v>
       </c>
       <c r="R34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="S34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="T34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="U34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="V34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="W34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="X34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="Y34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
     </row>
     <row r="35">
@@ -30007,28 +30007,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
-        <v>40.58157162934933</v>
+        <v>40.58157162934944</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>166.1290651424569</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S36" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30153,16 +30153,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>165.9232676913869</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30256,10 +30256,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>116.9787331327012</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>40.58157162934941</v>
       </c>
       <c r="P38" t="n">
         <v>166.1290651424569</v>
@@ -30268,7 +30268,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30384,19 +30384,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>159.063286932391</v>
       </c>
       <c r="I40" t="n">
         <v>142.7610139533483</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>46.68561682995293</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30487,19 +30487,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>40.58157162934924</v>
-      </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>40.58157162934964</v>
       </c>
       <c r="Q41" t="n">
         <v>166.1290651424569</v>
@@ -30545,7 +30545,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30636,10 +30636,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J43" t="n">
-        <v>59.456666199969</v>
+        <v>82.77423184081327</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30730,19 +30730,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O44" t="n">
-        <v>116.9787331327006</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>40.5815716293491</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S45" t="n">
-        <v>14.56549128550395</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30873,13 +30873,13 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>59.456666199969</v>
+        <v>106.1422830299227</v>
       </c>
       <c r="K46" t="n">
-        <v>23.31756564084502</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34708,16 +34708,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>382.1528875633492</v>
+        <v>330.6843276740589</v>
       </c>
       <c r="O2" t="n">
-        <v>279.2771915112789</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
@@ -34787,7 +34787,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>334.1726415376377</v>
+        <v>102.3640025879535</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>118.3716701834121</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34954,7 +34954,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>43.9175549455956</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>493.9377883662141</v>
       </c>
       <c r="O6" t="n">
-        <v>339.1602864248779</v>
+        <v>150.3698912664403</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>164.6202597107962</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>334.4604897835004</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
@@ -35422,13 +35422,13 @@
         <v>474.0473449783822</v>
       </c>
       <c r="O11" t="n">
-        <v>387.581918843005</v>
+        <v>399.9798962764814</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>309.9579915533266</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.2805722499188</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
         <v>2.162553775927762</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586579</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>164.6202597107962</v>
+        <v>154.3848360532468</v>
       </c>
       <c r="K14" t="n">
-        <v>324.2250661259517</v>
+        <v>334.4604897835004</v>
       </c>
       <c r="L14" t="n">
         <v>351.3993667524709</v>
@@ -35656,16 +35656,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>474.0473449783821</v>
+        <v>474.0473449783822</v>
       </c>
       <c r="O14" t="n">
-        <v>399.9798962764813</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>322.3559689868039</v>
       </c>
       <c r="Q14" t="n">
-        <v>187.2805722499187</v>
+        <v>187.2805722499188</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117116</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.4377912150639</v>
+        <v>32.43779121506396</v>
       </c>
       <c r="K16" t="n">
-        <v>125.8380813995212</v>
+        <v>125.8380813995213</v>
       </c>
       <c r="L16" t="n">
         <v>193.5177699405476</v>
       </c>
       <c r="M16" t="n">
-        <v>211.0798171398831</v>
+        <v>211.0798171398832</v>
       </c>
       <c r="N16" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O16" t="n">
-        <v>191.3526861985578</v>
+        <v>191.3526861985579</v>
       </c>
       <c r="P16" t="n">
-        <v>155.4989864333539</v>
+        <v>155.498986433354</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218505</v>
+        <v>53.74248948218511</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>468.378099885173</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>437.7928506728725</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
@@ -35899,13 +35899,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q17" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>76.39716150335173</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117116</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N19" t="n">
-        <v>166.304143849752</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O19" t="n">
         <v>99.45822878352493</v>
@@ -36060,7 +36060,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>46.68561682995327</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>113.3073739251122</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L20" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
@@ -36133,16 +36133,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.364847967588</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117116</v>
+        <v>159.3652826117103</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="K22" t="n">
         <v>33.9436239844883</v>
@@ -36288,7 +36288,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36358,19 +36358,19 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>517.5284318949278</v>
+        <v>391.9809383818204</v>
       </c>
       <c r="M23" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N23" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O23" t="n">
-        <v>425.0641719941488</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
@@ -36379,7 +36379,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="K25" t="n">
-        <v>80.62924081444127</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L25" t="n">
         <v>101.6233125255146</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.3868711573417</v>
+        <v>201.3868711573418</v>
       </c>
       <c r="K26" t="n">
-        <v>371.2271012300458</v>
+        <v>371.2271012300459</v>
       </c>
       <c r="L26" t="n">
-        <v>434.5108085192344</v>
+        <v>434.5108085192311</v>
       </c>
       <c r="M26" t="n">
-        <v>525.8723479051016</v>
+        <v>525.8723479051017</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249276</v>
+        <v>510.8139564249278</v>
       </c>
       <c r="O26" t="n">
-        <v>436.7465077230269</v>
+        <v>436.746507723027</v>
       </c>
       <c r="P26" t="n">
-        <v>359.1225804333493</v>
+        <v>359.1225804333495</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964643</v>
+        <v>224.0471836964644</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247322</v>
+        <v>38.92916522247336</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.20440266160955</v>
       </c>
       <c r="K28" t="n">
-        <v>162.6046928460667</v>
+        <v>49.43716556869445</v>
       </c>
       <c r="L28" t="n">
-        <v>230.284381387093</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M28" t="n">
-        <v>119.1853597248502</v>
+        <v>247.8464285864288</v>
       </c>
       <c r="N28" t="n">
-        <v>166.1645033327693</v>
+        <v>248.2795958813769</v>
       </c>
       <c r="O28" t="n">
-        <v>228.1192976451033</v>
+        <v>228.1192976451035</v>
       </c>
       <c r="P28" t="n">
-        <v>192.2655978798994</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>90.50910092873069</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>201.3868711573417</v>
+        <v>201.3868711573419</v>
       </c>
       <c r="K29" t="n">
-        <v>371.2271012300459</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L29" t="n">
-        <v>480.0604356140494</v>
+        <v>480.0604356140495</v>
       </c>
       <c r="M29" t="n">
-        <v>525.8723479051016</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N29" t="n">
-        <v>510.8139564249277</v>
+        <v>510.8139564249278</v>
       </c>
       <c r="O29" t="n">
-        <v>391.1968806282122</v>
+        <v>391.1968806282081</v>
       </c>
       <c r="P29" t="n">
-        <v>359.1225804333494</v>
+        <v>359.1225804333495</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964643</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247327</v>
+        <v>38.92916522247342</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.20440266160961</v>
       </c>
       <c r="K31" t="n">
-        <v>80.48960029745766</v>
+        <v>162.6046928460669</v>
       </c>
       <c r="L31" t="n">
-        <v>230.2843813870931</v>
+        <v>230.2843813870932</v>
       </c>
       <c r="M31" t="n">
-        <v>247.8464285864287</v>
+        <v>247.8464285864288</v>
       </c>
       <c r="N31" t="n">
-        <v>248.2795958813768</v>
+        <v>135.1120686040035</v>
       </c>
       <c r="O31" t="n">
-        <v>228.1192976451034</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P31" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>90.50910092873075</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>209.5017307825132</v>
+        <v>209.5017307825133</v>
       </c>
       <c r="K32" t="n">
-        <v>379.3419608552173</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L32" t="n">
-        <v>488.1752952392209</v>
+        <v>382.173497819556</v>
       </c>
       <c r="M32" t="n">
-        <v>533.9872075302731</v>
+        <v>533.9872075302732</v>
       </c>
       <c r="N32" t="n">
         <v>518.9288160500992</v>
       </c>
       <c r="O32" t="n">
-        <v>444.8613673481983</v>
+        <v>444.8613673481984</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4615115717709</v>
+        <v>367.2374400585209</v>
       </c>
       <c r="Q32" t="n">
-        <v>126.1602459019723</v>
+        <v>232.1620433216358</v>
       </c>
       <c r="R32" t="n">
-        <v>47.04402484764472</v>
+        <v>47.04402484764481</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.31926228678091</v>
+        <v>77.319262286781</v>
       </c>
       <c r="K34" t="n">
         <v>33.9436239844883</v>
@@ -37236,7 +37236,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>256.3944555065482</v>
+        <v>235.6156411209228</v>
       </c>
       <c r="O34" t="n">
         <v>99.45822878352493</v>
@@ -37245,7 +37245,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>77.84514616827818</v>
+        <v>98.62396055390214</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
-        <v>283.1476039978168</v>
+        <v>283.1476039978169</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
         <v>382.1528875633492</v>
@@ -37321,10 +37321,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R35" t="n">
         <v>76.39716150335175</v>
@@ -37449,16 +37449,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>14.96741926690627</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
-        <v>146.1438456134779</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P37" t="n">
         <v>63.604529018321</v>
@@ -37552,10 +37552,10 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>499.1316206960504</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>348.6670104907978</v>
       </c>
       <c r="P38" t="n">
         <v>396.5905767142278</v>
@@ -37564,7 +37564,7 @@
         <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37680,19 +37680,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.284368163872038</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>110.2901458482739</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37783,19 +37783,19 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>422.7344591926985</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011206</v>
       </c>
       <c r="Q41" t="n">
         <v>261.5151799773428</v>
@@ -37932,10 +37932,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>23.31756564084427</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
@@ -37950,7 +37950,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
-        <v>146.1438456134779</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
         <v>63.604529018321</v>
@@ -38026,19 +38026,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>425.064171994149</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>135.967686464235</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>76.3971615033517</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38169,13 +38169,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>23.36805118910863</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>46.68561682995365</v>
       </c>
       <c r="K46" t="n">
-        <v>57.26118962533332</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
         <v>101.6233125255146</v>
